--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,267 +43,273 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
     <t>loose</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>probably</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>bit</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>3</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -328,25 +334,37 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>every</t>
@@ -355,21 +373,15 @@
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>book</t>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
@@ -380,9 +392,6 @@
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -857,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -915,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7">
-        <v>0.7956989247311828</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,16 +1095,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,16 +1145,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7037037037037037</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6571428571428571</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K12">
-        <v>0.5437589670014347</v>
+        <v>0.5179340028694405</v>
       </c>
       <c r="L12">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M12">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6545454545454545</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K13">
-        <v>0.4979253112033195</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L13">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M13">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6451612903225806</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14">
-        <v>0.4483606557377049</v>
+        <v>0.4532786885245902</v>
       </c>
       <c r="L14">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M14">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6283783783783784</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15">
-        <v>0.3493975903614458</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L15">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16">
-        <v>0.3394495412844037</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5825242718446602</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K17">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K18">
         <v>0.3207547169811321</v>
@@ -1615,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19">
-        <v>0.2962962962962963</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L19">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5238095238095238</v>
+        <v>0.5625</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20">
-        <v>0.21875</v>
+        <v>0.234375</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,31 +1742,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21">
-        <v>0.2097902097902098</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5208333333333334</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K22">
-        <v>0.1847389558232932</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>203</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5161290322580645</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23">
-        <v>0.1825396825396825</v>
+        <v>0.1953125</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1865,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24">
-        <v>0.168</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.453125</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,31 +1942,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K25">
-        <v>0.1482456140350877</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>971</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4259259259259259</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K26">
-        <v>0.1451612903225807</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,7 +2024,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4222222222222222</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C27">
         <v>19</v>
@@ -2033,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K27">
-        <v>0.1282051282051282</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2074,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4186046511627907</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28">
-        <v>0.1103896103896104</v>
+        <v>0.152</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4126984126984127</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K29">
-        <v>0.08051948051948052</v>
+        <v>0.1456140350877193</v>
       </c>
       <c r="L29">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="M29">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="N29">
         <v>0.99</v>
@@ -2157,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1416</v>
+        <v>974</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3933649289099526</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K30">
-        <v>0.08021390374331551</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>344</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3877551020408163</v>
+        <v>0.390625</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K31">
-        <v>0.07003891050583658</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>239</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3855421686746988</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,31 +2292,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K32">
-        <v>0.06963788300835655</v>
+        <v>0.08132726089785296</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>334</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3700787401574803</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K33">
-        <v>0.06481481481481481</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>303</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3650793650793651</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K34">
-        <v>0.05053191489361702</v>
+        <v>0.06128133704735376</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2407,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>714</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3578947368421053</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2433,31 +2442,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K35">
-        <v>0.03816793893129771</v>
+        <v>0.05246913580246913</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>378</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,31 +2492,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K36">
-        <v>0.02279202279202279</v>
+        <v>0.04</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.16</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>686</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3518518518518519</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,7 +2542,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37">
+        <v>0.02130681818181818</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2541,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3483146067415731</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2559,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2567,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3454545454545455</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C39">
         <v>19</v>
@@ -2585,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2593,13 +2626,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3432835820895522</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2611,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2619,13 +2652,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3359375</v>
+        <v>0.328125</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2637,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2645,13 +2678,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3166666666666667</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2671,13 +2704,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3148148148148148</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2689,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2697,13 +2730,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.297029702970297</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2715,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>142</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2723,13 +2756,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2678571428571428</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2741,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2749,7 +2782,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2608695652173913</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C46">
         <v>18</v>
@@ -2767,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2775,25 +2808,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2459016393442623</v>
+        <v>0.25</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2801,13 +2834,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2346938775510204</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2819,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2827,13 +2860,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2164948453608248</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2845,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2853,13 +2886,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2033898305084746</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2871,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2879,13 +2912,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2027027027027027</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2897,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2905,13 +2938,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2923,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2957,13 +2990,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1965811965811966</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2975,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2983,13 +3016,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1855670103092784</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3001,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3009,25 +3042,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1809045226130653</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C56">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3035,25 +3068,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.177536231884058</v>
+        <v>0.1649331352154532</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D57">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>227</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3113,25 +3146,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1545319465081724</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C60">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>569</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3139,25 +3172,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1396825396825397</v>
+        <v>0.155</v>
       </c>
       <c r="C61">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>271</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3165,13 +3198,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1360759493670886</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D62">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3183,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3191,13 +3224,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1273885350318471</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3209,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3217,13 +3250,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1256830601092896</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3235,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3243,13 +3276,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1255506607929515</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C65">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3261,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>397</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3269,13 +3302,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.125</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3287,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3295,13 +3328,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1214953271028037</v>
+        <v>0.1328125</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3313,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3321,13 +3354,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1129032258064516</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3339,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3347,25 +3380,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1086142322097378</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3373,25 +3406,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1085714285714286</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>156</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3399,25 +3432,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.101063829787234</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3425,25 +3458,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09803921568627451</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3451,13 +3484,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09424083769633508</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3469,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3477,25 +3510,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0779510022271715</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C74">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>414</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3503,25 +3536,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.07671232876712329</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C75">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>337</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3529,25 +3562,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.06930693069306931</v>
+        <v>0.09375</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>564</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3555,25 +3588,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06810035842293907</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>260</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3581,13 +3614,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06478873239436619</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3599,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3607,25 +3640,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05411764705882353</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>32</v>
       </c>
       <c r="E79">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3633,25 +3666,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04955527318932656</v>
+        <v>0.06280991735537191</v>
       </c>
       <c r="C80">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F80">
-        <v>0.85</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>748</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3659,25 +3692,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0351288056206089</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F81">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>412</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3685,25 +3718,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.02982107355864811</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>16</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>488</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3711,25 +3744,77 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02603369065849924</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E83">
+        <v>0.21</v>
+      </c>
+      <c r="F83">
+        <v>0.79</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.04187817258883249</v>
+      </c>
+      <c r="C84">
+        <v>33</v>
+      </c>
+      <c r="D84">
+        <v>39</v>
+      </c>
+      <c r="E84">
+        <v>0.15</v>
+      </c>
+      <c r="F84">
+        <v>0.85</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="C85">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85">
         <v>0.11</v>
       </c>
-      <c r="F83">
+      <c r="F85">
         <v>0.89</v>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>636</v>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
